--- a/K1/Rough_Stoich_Matrix.xlsx
+++ b/K1/Rough_Stoich_Matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8736" activeTab="1" xr2:uid="{C2C225AA-4E5B-4F86-A585-D158162A2C01}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8736" activeTab="3" xr2:uid="{C2C225AA-4E5B-4F86-A585-D158162A2C01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="265">
   <si>
     <r>
       <t>v</t>
@@ -2027,6 +2027,18 @@
   </si>
   <si>
     <t>C_C_int</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>_0</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -4785,10 +4797,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8705BC34-B44B-4280-BF09-25A475410D01}">
   <dimension ref="B1:AT38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="AX21" sqref="AX21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4921,16 +4933,16 @@
         <v>146</v>
       </c>
       <c r="I2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" t="s">
         <v>143</v>
       </c>
-      <c r="J2" t="s">
-        <v>168</v>
-      </c>
       <c r="K2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" t="s">
         <v>141</v>
-      </c>
-      <c r="L2" t="s">
-        <v>165</v>
       </c>
       <c r="M2" t="s">
         <v>169</v>
@@ -6361,10 +6373,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1C6E59-DBDC-43A9-80DC-30DE878D23D8}">
-  <dimension ref="D2:E40"/>
+  <dimension ref="D1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6372,316 +6384,1143 @@
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>240</v>
       </c>
       <c r="E2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>241</v>
       </c>
       <c r="E3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>182</v>
       </c>
       <c r="E4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" t="s">
+        <v>263</v>
+      </c>
+      <c r="K4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>184</v>
       </c>
       <c r="E5" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" t="s">
+        <v>263</v>
+      </c>
+      <c r="K5" t="s">
+        <v>264</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>183</v>
       </c>
       <c r="E6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K6" t="s">
+        <v>264</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>186</v>
       </c>
       <c r="E7" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>185</v>
       </c>
       <c r="E8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>242</v>
       </c>
       <c r="E9" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>187</v>
       </c>
       <c r="E10" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" t="s">
+        <v>264</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>243</v>
       </c>
       <c r="E11" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>243</v>
+      </c>
+      <c r="J11" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>189</v>
       </c>
       <c r="E12" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" t="s">
+        <v>263</v>
+      </c>
+      <c r="K12" t="s">
+        <v>264</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>188</v>
       </c>
       <c r="E13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>188</v>
+      </c>
+      <c r="J13" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" t="s">
+        <v>264</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>245</v>
       </c>
       <c r="E14" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J14" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" t="s">
+        <v>264</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>244</v>
       </c>
       <c r="E15" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J15" t="s">
+        <v>263</v>
+      </c>
+      <c r="K15" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>246</v>
       </c>
       <c r="E16" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>246</v>
+      </c>
+      <c r="J16" t="s">
+        <v>263</v>
+      </c>
+      <c r="K16" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>190</v>
       </c>
       <c r="E17" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>247</v>
       </c>
       <c r="E18" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>247</v>
+      </c>
+      <c r="J18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>248</v>
       </c>
       <c r="E19" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>248</v>
+      </c>
+      <c r="J19" t="s">
+        <v>263</v>
+      </c>
+      <c r="K19" t="s">
+        <v>264</v>
+      </c>
+      <c r="L19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>249</v>
       </c>
       <c r="E20" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>249</v>
+      </c>
+      <c r="J20" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" t="s">
+        <v>264</v>
+      </c>
+      <c r="L20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>191</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" t="s">
+        <v>264</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>193</v>
       </c>
       <c r="E22" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>263</v>
+      </c>
+      <c r="K22" t="s">
+        <v>264</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>192</v>
       </c>
       <c r="E23" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>263</v>
+      </c>
+      <c r="K23" t="s">
+        <v>264</v>
+      </c>
+      <c r="L23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>250</v>
       </c>
       <c r="E24" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>250</v>
+      </c>
+      <c r="J24" t="s">
+        <v>263</v>
+      </c>
+      <c r="K24" t="s">
+        <v>264</v>
+      </c>
+      <c r="L24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>194</v>
       </c>
       <c r="E25" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>263</v>
+      </c>
+      <c r="K25" t="s">
+        <v>264</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>251</v>
       </c>
       <c r="E26" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>251</v>
+      </c>
+      <c r="J26" t="s">
+        <v>263</v>
+      </c>
+      <c r="K26" t="s">
+        <v>264</v>
+      </c>
+      <c r="L26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>195</v>
       </c>
       <c r="E27" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>252</v>
       </c>
       <c r="E28" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>196</v>
       </c>
       <c r="E29" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>253</v>
       </c>
       <c r="E30" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>197</v>
       </c>
       <c r="E31" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>198</v>
       </c>
       <c r="E32" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" t="s">
+        <v>263</v>
+      </c>
+      <c r="K32" t="s">
+        <v>264</v>
+      </c>
+      <c r="L32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>254</v>
       </c>
       <c r="E33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>199</v>
       </c>
       <c r="E34" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>199</v>
+      </c>
+      <c r="J34" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>201</v>
       </c>
       <c r="E35" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35" t="s">
+        <v>264</v>
+      </c>
+      <c r="L35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>200</v>
       </c>
       <c r="E36" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>200</v>
+      </c>
+      <c r="J36" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>255</v>
       </c>
       <c r="E37" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>255</v>
+      </c>
+      <c r="J37" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>256</v>
       </c>
       <c r="E38" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J38" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" t="s">
+        <v>264</v>
+      </c>
+      <c r="L38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>203</v>
       </c>
       <c r="E39" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" t="s">
+        <v>263</v>
+      </c>
+      <c r="K39" t="s">
+        <v>264</v>
+      </c>
+      <c r="L39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>202</v>
       </c>
       <c r="E40" t="s">
         <v>257</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>202</v>
+      </c>
+      <c r="J40" t="s">
+        <v>263</v>
+      </c>
+      <c r="K40" t="s">
+        <v>264</v>
+      </c>
+      <c r="L40" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/K1/Rough_Stoich_Matrix.xlsx
+++ b/K1/Rough_Stoich_Matrix.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8736" activeTab="3" xr2:uid="{C2C225AA-4E5B-4F86-A585-D158162A2C01}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8736" activeTab="2" xr2:uid="{C2C225AA-4E5B-4F86-A585-D158162A2C01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$B$1:$B$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$B$1:$B$100</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="265">
   <si>
     <r>
       <t>v</t>
@@ -2128,7 +2129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2240,11 +2241,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2296,6 +2377,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4797,10 +4887,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8705BC34-B44B-4280-BF09-25A475410D01}">
   <dimension ref="B1:AT38"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AX21" sqref="AX21"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5856,6 +5946,4442 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3680882D-9A04-49A4-B8E1-7C303265C82A}">
+  <dimension ref="A1:AI41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AH45" sqref="AH45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22">
+        <v>0</v>
+      </c>
+      <c r="I2" s="22">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="22">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22">
+        <v>0</v>
+      </c>
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22">
+        <v>0</v>
+      </c>
+      <c r="R2" s="22">
+        <v>0</v>
+      </c>
+      <c r="S2" s="22">
+        <v>0</v>
+      </c>
+      <c r="T2" s="22">
+        <v>0</v>
+      </c>
+      <c r="U2" s="22">
+        <v>0</v>
+      </c>
+      <c r="V2" s="22">
+        <v>0</v>
+      </c>
+      <c r="W2" s="22">
+        <v>0</v>
+      </c>
+      <c r="X2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0</v>
+      </c>
+      <c r="M3" s="25">
+        <v>0</v>
+      </c>
+      <c r="N3" s="25">
+        <v>0</v>
+      </c>
+      <c r="O3" s="25">
+        <v>0</v>
+      </c>
+      <c r="P3" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>0</v>
+      </c>
+      <c r="R3" s="25">
+        <v>0</v>
+      </c>
+      <c r="S3" s="25">
+        <v>0</v>
+      </c>
+      <c r="T3" s="25">
+        <v>0</v>
+      </c>
+      <c r="U3" s="25">
+        <v>0</v>
+      </c>
+      <c r="V3" s="25">
+        <v>0</v>
+      </c>
+      <c r="W3" s="25">
+        <v>1</v>
+      </c>
+      <c r="X3" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="R4" s="25">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="S4" s="25">
+        <v>0</v>
+      </c>
+      <c r="T4" s="25">
+        <v>0</v>
+      </c>
+      <c r="U4" s="25">
+        <v>0</v>
+      </c>
+      <c r="V4" s="25">
+        <v>0</v>
+      </c>
+      <c r="W4" s="25">
+        <v>-1</v>
+      </c>
+      <c r="X4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25">
+        <v>0</v>
+      </c>
+      <c r="S5" s="25">
+        <v>0</v>
+      </c>
+      <c r="T5" s="25">
+        <v>1</v>
+      </c>
+      <c r="U5" s="25">
+        <v>0</v>
+      </c>
+      <c r="V5" s="25">
+        <v>0</v>
+      </c>
+      <c r="W5" s="25">
+        <v>0</v>
+      </c>
+      <c r="X5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <v>0</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>1</v>
+      </c>
+      <c r="S6" s="25">
+        <v>0</v>
+      </c>
+      <c r="T6" s="25">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="25">
+        <v>0</v>
+      </c>
+      <c r="V6" s="25">
+        <v>0</v>
+      </c>
+      <c r="W6" s="25">
+        <v>0</v>
+      </c>
+      <c r="X6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25">
+        <v>0</v>
+      </c>
+      <c r="S7" s="25">
+        <v>0</v>
+      </c>
+      <c r="T7" s="25">
+        <v>0</v>
+      </c>
+      <c r="U7" s="25">
+        <v>0</v>
+      </c>
+      <c r="V7" s="25">
+        <v>0</v>
+      </c>
+      <c r="W7" s="25">
+        <v>0</v>
+      </c>
+      <c r="X7" s="25">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="R8" s="25">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="S8" s="25">
+        <v>0</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0</v>
+      </c>
+      <c r="U8" s="25">
+        <v>0</v>
+      </c>
+      <c r="V8" s="25">
+        <v>0</v>
+      </c>
+      <c r="W8" s="25">
+        <v>0</v>
+      </c>
+      <c r="X8" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0</v>
+      </c>
+      <c r="T9" s="25">
+        <v>0</v>
+      </c>
+      <c r="U9" s="25">
+        <v>0</v>
+      </c>
+      <c r="V9" s="25">
+        <v>0</v>
+      </c>
+      <c r="W9" s="25">
+        <v>0</v>
+      </c>
+      <c r="X9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="25">
+        <v>1</v>
+      </c>
+      <c r="L10" s="25">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="25">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>-0.08</v>
+      </c>
+      <c r="R10" s="25">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="25">
+        <v>0</v>
+      </c>
+      <c r="U10" s="25">
+        <v>0</v>
+      </c>
+      <c r="V10" s="25">
+        <v>0</v>
+      </c>
+      <c r="W10" s="25">
+        <v>0</v>
+      </c>
+      <c r="X10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="24">
+        <v>3</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0</v>
+      </c>
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="P11" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>-8.68</v>
+      </c>
+      <c r="R11" s="25">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="S11" s="25">
+        <v>0</v>
+      </c>
+      <c r="T11" s="25">
+        <v>0</v>
+      </c>
+      <c r="U11" s="25">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="25">
+        <v>0</v>
+      </c>
+      <c r="W11" s="25">
+        <v>0</v>
+      </c>
+      <c r="X11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="25">
+        <v>1</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0</v>
+      </c>
+      <c r="U12" s="25">
+        <v>0</v>
+      </c>
+      <c r="V12" s="25">
+        <v>0</v>
+      </c>
+      <c r="W12" s="25">
+        <v>0</v>
+      </c>
+      <c r="X12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0</v>
+      </c>
+      <c r="O13" s="25">
+        <v>0</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>1</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0</v>
+      </c>
+      <c r="S13" s="25">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="25">
+        <v>0</v>
+      </c>
+      <c r="U13" s="25">
+        <v>0</v>
+      </c>
+      <c r="V13" s="25">
+        <v>0</v>
+      </c>
+      <c r="W13" s="25">
+        <v>0</v>
+      </c>
+      <c r="X13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0</v>
+      </c>
+      <c r="O14" s="25">
+        <v>0</v>
+      </c>
+      <c r="P14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>0</v>
+      </c>
+      <c r="R14" s="25">
+        <v>0</v>
+      </c>
+      <c r="S14" s="25">
+        <v>0</v>
+      </c>
+      <c r="T14" s="25">
+        <v>0</v>
+      </c>
+      <c r="U14" s="25">
+        <v>0</v>
+      </c>
+      <c r="V14" s="25">
+        <v>0</v>
+      </c>
+      <c r="W14" s="25">
+        <v>0</v>
+      </c>
+      <c r="X14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0</v>
+      </c>
+      <c r="N15" s="25">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>0</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0</v>
+      </c>
+      <c r="T15" s="25">
+        <v>0</v>
+      </c>
+      <c r="U15" s="25">
+        <v>0</v>
+      </c>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
+      <c r="W15" s="25">
+        <v>0</v>
+      </c>
+      <c r="X15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="24">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0</v>
+      </c>
+      <c r="L16" s="25">
+        <v>0</v>
+      </c>
+      <c r="M16" s="25">
+        <v>0</v>
+      </c>
+      <c r="N16" s="25">
+        <v>0</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>0</v>
+      </c>
+      <c r="R16" s="25">
+        <v>0</v>
+      </c>
+      <c r="S16" s="25">
+        <v>0</v>
+      </c>
+      <c r="T16" s="25">
+        <v>0</v>
+      </c>
+      <c r="U16" s="25">
+        <v>0</v>
+      </c>
+      <c r="V16" s="25">
+        <v>0</v>
+      </c>
+      <c r="W16" s="25">
+        <v>0</v>
+      </c>
+      <c r="X16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <v>2</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="25">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>0</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0</v>
+      </c>
+      <c r="S17" s="25">
+        <v>0</v>
+      </c>
+      <c r="T17" s="25">
+        <v>0</v>
+      </c>
+      <c r="U17" s="25">
+        <v>0</v>
+      </c>
+      <c r="V17" s="25">
+        <v>0</v>
+      </c>
+      <c r="W17" s="25">
+        <v>0</v>
+      </c>
+      <c r="X17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AG17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="24">
+        <v>0</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0</v>
+      </c>
+      <c r="M18" s="25">
+        <v>0</v>
+      </c>
+      <c r="N18" s="25">
+        <v>2</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="R18" s="25">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="S18" s="25">
+        <v>0</v>
+      </c>
+      <c r="T18" s="25">
+        <v>0</v>
+      </c>
+      <c r="U18" s="25">
+        <v>0</v>
+      </c>
+      <c r="V18" s="25">
+        <v>0</v>
+      </c>
+      <c r="W18" s="25">
+        <v>0</v>
+      </c>
+      <c r="X18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AH18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>1</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
+        <v>0</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0</v>
+      </c>
+      <c r="M19" s="25">
+        <v>0</v>
+      </c>
+      <c r="N19" s="25">
+        <v>0</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0</v>
+      </c>
+      <c r="T19" s="25">
+        <v>0</v>
+      </c>
+      <c r="U19" s="25">
+        <v>0</v>
+      </c>
+      <c r="V19" s="25">
+        <v>0</v>
+      </c>
+      <c r="W19" s="25">
+        <v>0</v>
+      </c>
+      <c r="X19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="24">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0</v>
+      </c>
+      <c r="L20" s="25">
+        <v>0</v>
+      </c>
+      <c r="M20" s="25">
+        <v>0</v>
+      </c>
+      <c r="N20" s="25">
+        <v>0</v>
+      </c>
+      <c r="O20" s="25">
+        <v>0</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0</v>
+      </c>
+      <c r="S20" s="25">
+        <v>0</v>
+      </c>
+      <c r="T20" s="25">
+        <v>0</v>
+      </c>
+      <c r="U20" s="25">
+        <v>1</v>
+      </c>
+      <c r="V20" s="25">
+        <v>0</v>
+      </c>
+      <c r="W20" s="25">
+        <v>0</v>
+      </c>
+      <c r="X20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="24">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0</v>
+      </c>
+      <c r="I21" s="25">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25">
+        <v>0</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0</v>
+      </c>
+      <c r="M21" s="25">
+        <v>0</v>
+      </c>
+      <c r="N21" s="25">
+        <v>0</v>
+      </c>
+      <c r="O21" s="25">
+        <v>0</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>0</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0</v>
+      </c>
+      <c r="S21" s="25">
+        <v>0</v>
+      </c>
+      <c r="T21" s="25">
+        <v>0</v>
+      </c>
+      <c r="U21" s="25">
+        <v>-1</v>
+      </c>
+      <c r="V21" s="25">
+        <v>0</v>
+      </c>
+      <c r="W21" s="25">
+        <v>0</v>
+      </c>
+      <c r="X21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25">
+        <v>0</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="25">
+        <v>0</v>
+      </c>
+      <c r="N22" s="25">
+        <v>0</v>
+      </c>
+      <c r="O22" s="25">
+        <v>0</v>
+      </c>
+      <c r="P22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>0</v>
+      </c>
+      <c r="R22" s="25">
+        <v>0</v>
+      </c>
+      <c r="S22" s="25">
+        <v>0</v>
+      </c>
+      <c r="T22" s="25">
+        <v>0</v>
+      </c>
+      <c r="U22" s="25">
+        <v>0</v>
+      </c>
+      <c r="V22" s="25">
+        <v>0</v>
+      </c>
+      <c r="W22" s="25">
+        <v>0</v>
+      </c>
+      <c r="X22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AB22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="24">
+        <v>0</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="25">
+        <v>0</v>
+      </c>
+      <c r="K23" s="25">
+        <v>0</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0</v>
+      </c>
+      <c r="M23" s="25">
+        <v>0</v>
+      </c>
+      <c r="N23" s="25">
+        <v>0</v>
+      </c>
+      <c r="O23" s="25">
+        <v>0</v>
+      </c>
+      <c r="P23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="R23" s="25">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="S23" s="25">
+        <v>0</v>
+      </c>
+      <c r="T23" s="25">
+        <v>0</v>
+      </c>
+      <c r="U23" s="25">
+        <v>0</v>
+      </c>
+      <c r="V23" s="25">
+        <v>0</v>
+      </c>
+      <c r="W23" s="25">
+        <v>0</v>
+      </c>
+      <c r="X23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="25">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0</v>
+      </c>
+      <c r="J24" s="25">
+        <v>0</v>
+      </c>
+      <c r="K24" s="25">
+        <v>0</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0</v>
+      </c>
+      <c r="M24" s="25">
+        <v>0</v>
+      </c>
+      <c r="N24" s="25">
+        <v>0</v>
+      </c>
+      <c r="O24" s="25">
+        <v>0</v>
+      </c>
+      <c r="P24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>0</v>
+      </c>
+      <c r="R24" s="25">
+        <v>0</v>
+      </c>
+      <c r="S24" s="25">
+        <v>0</v>
+      </c>
+      <c r="T24" s="25">
+        <v>0</v>
+      </c>
+      <c r="U24" s="25">
+        <v>0</v>
+      </c>
+      <c r="V24" s="25">
+        <v>0</v>
+      </c>
+      <c r="W24" s="25">
+        <v>0</v>
+      </c>
+      <c r="X24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="24">
+        <v>0</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R25" s="25">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="S25" s="25">
+        <v>0</v>
+      </c>
+      <c r="T25" s="25">
+        <v>0</v>
+      </c>
+      <c r="U25" s="25">
+        <v>0</v>
+      </c>
+      <c r="V25" s="25">
+        <v>0</v>
+      </c>
+      <c r="W25" s="25">
+        <v>0</v>
+      </c>
+      <c r="X25" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AA25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AI25" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="24">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <v>0</v>
+      </c>
+      <c r="J26" s="25">
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <v>0</v>
+      </c>
+      <c r="M26" s="25">
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <v>0</v>
+      </c>
+      <c r="O26" s="25">
+        <v>0</v>
+      </c>
+      <c r="P26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>0</v>
+      </c>
+      <c r="R26" s="25">
+        <v>0</v>
+      </c>
+      <c r="S26" s="25">
+        <v>0</v>
+      </c>
+      <c r="T26" s="25">
+        <v>0</v>
+      </c>
+      <c r="U26" s="25">
+        <v>0</v>
+      </c>
+      <c r="V26" s="25">
+        <v>0</v>
+      </c>
+      <c r="W26" s="25">
+        <v>0</v>
+      </c>
+      <c r="X26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="24">
+        <v>0</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0</v>
+      </c>
+      <c r="I27" s="25">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0</v>
+      </c>
+      <c r="L27" s="25">
+        <v>0</v>
+      </c>
+      <c r="M27" s="25">
+        <v>2</v>
+      </c>
+      <c r="N27" s="25">
+        <v>0</v>
+      </c>
+      <c r="O27" s="25">
+        <v>0</v>
+      </c>
+      <c r="P27" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="R27" s="25">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="S27" s="25">
+        <v>0</v>
+      </c>
+      <c r="T27" s="25">
+        <v>0</v>
+      </c>
+      <c r="U27" s="25">
+        <v>0</v>
+      </c>
+      <c r="V27" s="25">
+        <v>0</v>
+      </c>
+      <c r="W27" s="25">
+        <v>0</v>
+      </c>
+      <c r="X27" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AC27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="24">
+        <v>0</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25">
+        <v>0</v>
+      </c>
+      <c r="J28" s="25">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0</v>
+      </c>
+      <c r="L28" s="25">
+        <v>0</v>
+      </c>
+      <c r="M28" s="25">
+        <v>0</v>
+      </c>
+      <c r="N28" s="25">
+        <v>0</v>
+      </c>
+      <c r="O28" s="25">
+        <v>0</v>
+      </c>
+      <c r="P28" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>0</v>
+      </c>
+      <c r="R28" s="25">
+        <v>0</v>
+      </c>
+      <c r="S28" s="25">
+        <v>0</v>
+      </c>
+      <c r="T28" s="25">
+        <v>0</v>
+      </c>
+      <c r="U28" s="25">
+        <v>0</v>
+      </c>
+      <c r="V28" s="25">
+        <v>1</v>
+      </c>
+      <c r="W28" s="25">
+        <v>0</v>
+      </c>
+      <c r="X28" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="24">
+        <v>0</v>
+      </c>
+      <c r="C29" s="25">
+        <v>1</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0</v>
+      </c>
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25">
+        <v>0</v>
+      </c>
+      <c r="J29" s="25">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25">
+        <v>0</v>
+      </c>
+      <c r="L29" s="25">
+        <v>0</v>
+      </c>
+      <c r="M29" s="25">
+        <v>0</v>
+      </c>
+      <c r="N29" s="25">
+        <v>0</v>
+      </c>
+      <c r="O29" s="25">
+        <v>0</v>
+      </c>
+      <c r="P29" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>0</v>
+      </c>
+      <c r="R29" s="25">
+        <v>0</v>
+      </c>
+      <c r="S29" s="25">
+        <v>0</v>
+      </c>
+      <c r="T29" s="25">
+        <v>0</v>
+      </c>
+      <c r="U29" s="25">
+        <v>0</v>
+      </c>
+      <c r="V29" s="25">
+        <v>-1</v>
+      </c>
+      <c r="W29" s="25">
+        <v>0</v>
+      </c>
+      <c r="X29" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="24">
+        <v>0</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0</v>
+      </c>
+      <c r="F30" s="25">
+        <v>1</v>
+      </c>
+      <c r="G30" s="25">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="25">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="25">
+        <v>0</v>
+      </c>
+      <c r="J30" s="25">
+        <v>0</v>
+      </c>
+      <c r="K30" s="25">
+        <v>0</v>
+      </c>
+      <c r="L30" s="25">
+        <v>0</v>
+      </c>
+      <c r="M30" s="25">
+        <v>0</v>
+      </c>
+      <c r="N30" s="25">
+        <v>0</v>
+      </c>
+      <c r="O30" s="25">
+        <v>0</v>
+      </c>
+      <c r="P30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="R30" s="25">
+        <v>0</v>
+      </c>
+      <c r="S30" s="25">
+        <v>0</v>
+      </c>
+      <c r="T30" s="25">
+        <v>0</v>
+      </c>
+      <c r="U30" s="25">
+        <v>0</v>
+      </c>
+      <c r="V30" s="25">
+        <v>0</v>
+      </c>
+      <c r="W30" s="25">
+        <v>0</v>
+      </c>
+      <c r="X30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="24">
+        <v>2</v>
+      </c>
+      <c r="C31" s="25">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0</v>
+      </c>
+      <c r="G31" s="25">
+        <v>0</v>
+      </c>
+      <c r="H31" s="25">
+        <v>0</v>
+      </c>
+      <c r="I31" s="25">
+        <v>0</v>
+      </c>
+      <c r="J31" s="25">
+        <v>0</v>
+      </c>
+      <c r="K31" s="25">
+        <v>0</v>
+      </c>
+      <c r="L31" s="25">
+        <v>0</v>
+      </c>
+      <c r="M31" s="25">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="25">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="25">
+        <v>0</v>
+      </c>
+      <c r="P31" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>0</v>
+      </c>
+      <c r="R31" s="25">
+        <v>0</v>
+      </c>
+      <c r="S31" s="25">
+        <v>0</v>
+      </c>
+      <c r="T31" s="25">
+        <v>0</v>
+      </c>
+      <c r="U31" s="25">
+        <v>0</v>
+      </c>
+      <c r="V31" s="25">
+        <v>0</v>
+      </c>
+      <c r="W31" s="25">
+        <v>0</v>
+      </c>
+      <c r="X31" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="24">
+        <v>0</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
+        <v>2</v>
+      </c>
+      <c r="F32" s="25">
+        <v>1</v>
+      </c>
+      <c r="G32" s="25">
+        <v>1</v>
+      </c>
+      <c r="H32" s="25">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25">
+        <v>0</v>
+      </c>
+      <c r="J32" s="25">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="25">
+        <v>0</v>
+      </c>
+      <c r="L32" s="25">
+        <v>0</v>
+      </c>
+      <c r="M32" s="25">
+        <v>0</v>
+      </c>
+      <c r="N32" s="25">
+        <v>0</v>
+      </c>
+      <c r="O32" s="25">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="25">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="R32" s="25">
+        <v>0</v>
+      </c>
+      <c r="S32" s="25">
+        <v>0</v>
+      </c>
+      <c r="T32" s="25">
+        <v>0</v>
+      </c>
+      <c r="U32" s="25">
+        <v>0</v>
+      </c>
+      <c r="V32" s="25">
+        <v>0</v>
+      </c>
+      <c r="W32" s="25">
+        <v>0</v>
+      </c>
+      <c r="X32" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="24">
+        <v>0</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
+      <c r="D33" s="25">
+        <v>0</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0</v>
+      </c>
+      <c r="F33" s="25">
+        <v>0</v>
+      </c>
+      <c r="G33" s="25">
+        <v>0</v>
+      </c>
+      <c r="H33" s="25">
+        <v>0</v>
+      </c>
+      <c r="I33" s="25">
+        <v>0</v>
+      </c>
+      <c r="J33" s="25">
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <v>0</v>
+      </c>
+      <c r="L33" s="25">
+        <v>0</v>
+      </c>
+      <c r="M33" s="25">
+        <v>0</v>
+      </c>
+      <c r="N33" s="25">
+        <v>0</v>
+      </c>
+      <c r="O33" s="25">
+        <v>0</v>
+      </c>
+      <c r="P33" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>0</v>
+      </c>
+      <c r="R33" s="25">
+        <v>0</v>
+      </c>
+      <c r="S33" s="25">
+        <v>0</v>
+      </c>
+      <c r="T33" s="25">
+        <v>0</v>
+      </c>
+      <c r="U33" s="25">
+        <v>0</v>
+      </c>
+      <c r="V33" s="25">
+        <v>0</v>
+      </c>
+      <c r="W33" s="25">
+        <v>0</v>
+      </c>
+      <c r="X33" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="25">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="24">
+        <v>0</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0</v>
+      </c>
+      <c r="F34" s="25">
+        <v>0</v>
+      </c>
+      <c r="G34" s="25">
+        <v>0</v>
+      </c>
+      <c r="H34" s="25">
+        <v>0</v>
+      </c>
+      <c r="I34" s="25">
+        <v>1</v>
+      </c>
+      <c r="J34" s="25">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="25">
+        <v>1</v>
+      </c>
+      <c r="L34" s="25">
+        <v>0</v>
+      </c>
+      <c r="M34" s="25">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="25">
+        <v>0</v>
+      </c>
+      <c r="O34" s="25">
+        <v>0</v>
+      </c>
+      <c r="P34" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="25">
+        <v>0</v>
+      </c>
+      <c r="R34" s="25">
+        <v>0</v>
+      </c>
+      <c r="S34" s="25">
+        <v>0</v>
+      </c>
+      <c r="T34" s="25">
+        <v>0</v>
+      </c>
+      <c r="U34" s="25">
+        <v>0</v>
+      </c>
+      <c r="V34" s="25">
+        <v>0</v>
+      </c>
+      <c r="W34" s="25">
+        <v>0</v>
+      </c>
+      <c r="X34" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AE34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="24">
+        <v>0</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0</v>
+      </c>
+      <c r="D35" s="25">
+        <v>0</v>
+      </c>
+      <c r="E35" s="25">
+        <v>0</v>
+      </c>
+      <c r="F35" s="25">
+        <v>0</v>
+      </c>
+      <c r="G35" s="25">
+        <v>0</v>
+      </c>
+      <c r="H35" s="25">
+        <v>0</v>
+      </c>
+      <c r="I35" s="25">
+        <v>0</v>
+      </c>
+      <c r="J35" s="25">
+        <v>0</v>
+      </c>
+      <c r="K35" s="25">
+        <v>0</v>
+      </c>
+      <c r="L35" s="25">
+        <v>0</v>
+      </c>
+      <c r="M35" s="25">
+        <v>0</v>
+      </c>
+      <c r="N35" s="25">
+        <v>0</v>
+      </c>
+      <c r="O35" s="25">
+        <v>0</v>
+      </c>
+      <c r="P35" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="25">
+        <v>0</v>
+      </c>
+      <c r="R35" s="25">
+        <v>0</v>
+      </c>
+      <c r="S35" s="25">
+        <v>0</v>
+      </c>
+      <c r="T35" s="25">
+        <v>0</v>
+      </c>
+      <c r="U35" s="25">
+        <v>0</v>
+      </c>
+      <c r="V35" s="25">
+        <v>0</v>
+      </c>
+      <c r="W35" s="25">
+        <v>0</v>
+      </c>
+      <c r="X35" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AF35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="24">
+        <v>0</v>
+      </c>
+      <c r="C36" s="25">
+        <v>0</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0</v>
+      </c>
+      <c r="F36" s="25">
+        <v>0</v>
+      </c>
+      <c r="G36" s="25">
+        <v>0</v>
+      </c>
+      <c r="H36" s="25">
+        <v>0</v>
+      </c>
+      <c r="I36" s="25">
+        <v>0</v>
+      </c>
+      <c r="J36" s="25">
+        <v>0</v>
+      </c>
+      <c r="K36" s="25">
+        <v>0</v>
+      </c>
+      <c r="L36" s="25">
+        <v>0</v>
+      </c>
+      <c r="M36" s="25">
+        <v>0</v>
+      </c>
+      <c r="N36" s="25">
+        <v>0</v>
+      </c>
+      <c r="O36" s="25">
+        <v>-0.5</v>
+      </c>
+      <c r="P36" s="25">
+        <v>-0.5</v>
+      </c>
+      <c r="Q36" s="25">
+        <v>0</v>
+      </c>
+      <c r="R36" s="25">
+        <v>0</v>
+      </c>
+      <c r="S36" s="25">
+        <v>0</v>
+      </c>
+      <c r="T36" s="25">
+        <v>0</v>
+      </c>
+      <c r="U36" s="25">
+        <v>0</v>
+      </c>
+      <c r="V36" s="25">
+        <v>0</v>
+      </c>
+      <c r="W36" s="25">
+        <v>0</v>
+      </c>
+      <c r="X36" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AH36" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="24">
+        <v>0</v>
+      </c>
+      <c r="C37" s="25">
+        <v>0</v>
+      </c>
+      <c r="D37" s="25">
+        <v>0</v>
+      </c>
+      <c r="E37" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0</v>
+      </c>
+      <c r="G37" s="25">
+        <v>1</v>
+      </c>
+      <c r="H37" s="25">
+        <v>0</v>
+      </c>
+      <c r="I37" s="25">
+        <v>0</v>
+      </c>
+      <c r="J37" s="25">
+        <v>0</v>
+      </c>
+      <c r="K37" s="25">
+        <v>0</v>
+      </c>
+      <c r="L37" s="25">
+        <v>1</v>
+      </c>
+      <c r="M37" s="25">
+        <v>0</v>
+      </c>
+      <c r="N37" s="25">
+        <v>0</v>
+      </c>
+      <c r="O37" s="25">
+        <v>0</v>
+      </c>
+      <c r="P37" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="25">
+        <v>-0.42699999999999999</v>
+      </c>
+      <c r="R37" s="25">
+        <v>0</v>
+      </c>
+      <c r="S37" s="25">
+        <v>0</v>
+      </c>
+      <c r="T37" s="25">
+        <v>0</v>
+      </c>
+      <c r="U37" s="25">
+        <v>0</v>
+      </c>
+      <c r="V37" s="25">
+        <v>0</v>
+      </c>
+      <c r="W37" s="25">
+        <v>0</v>
+      </c>
+      <c r="X37" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="24">
+        <v>2</v>
+      </c>
+      <c r="C38" s="25">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0</v>
+      </c>
+      <c r="G38" s="25">
+        <v>0</v>
+      </c>
+      <c r="H38" s="25">
+        <v>1</v>
+      </c>
+      <c r="I38" s="25">
+        <v>0</v>
+      </c>
+      <c r="J38" s="25">
+        <v>0</v>
+      </c>
+      <c r="K38" s="25">
+        <v>0</v>
+      </c>
+      <c r="L38" s="25">
+        <v>0</v>
+      </c>
+      <c r="M38" s="25">
+        <v>0</v>
+      </c>
+      <c r="N38" s="25">
+        <v>0</v>
+      </c>
+      <c r="O38" s="25">
+        <v>0</v>
+      </c>
+      <c r="P38" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="25">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="R38" s="25">
+        <v>0</v>
+      </c>
+      <c r="S38" s="25">
+        <v>0</v>
+      </c>
+      <c r="T38" s="25">
+        <v>0</v>
+      </c>
+      <c r="U38" s="25">
+        <v>0</v>
+      </c>
+      <c r="V38" s="25">
+        <v>0</v>
+      </c>
+      <c r="W38" s="25">
+        <v>0</v>
+      </c>
+      <c r="X38" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="24">
+        <v>0</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0</v>
+      </c>
+      <c r="D39" s="25">
+        <v>0</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0</v>
+      </c>
+      <c r="F39" s="25">
+        <v>0</v>
+      </c>
+      <c r="G39" s="25">
+        <v>0</v>
+      </c>
+      <c r="H39" s="25">
+        <v>0</v>
+      </c>
+      <c r="I39" s="25">
+        <v>0</v>
+      </c>
+      <c r="J39" s="25">
+        <v>0</v>
+      </c>
+      <c r="K39" s="25">
+        <v>0</v>
+      </c>
+      <c r="L39" s="25">
+        <v>0</v>
+      </c>
+      <c r="M39" s="25">
+        <v>0</v>
+      </c>
+      <c r="N39" s="25">
+        <v>0</v>
+      </c>
+      <c r="O39" s="25">
+        <v>0</v>
+      </c>
+      <c r="P39" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="25">
+        <v>0</v>
+      </c>
+      <c r="R39" s="25">
+        <v>0</v>
+      </c>
+      <c r="S39" s="25">
+        <v>0</v>
+      </c>
+      <c r="T39" s="25">
+        <v>0</v>
+      </c>
+      <c r="U39" s="25">
+        <v>0</v>
+      </c>
+      <c r="V39" s="25">
+        <v>0</v>
+      </c>
+      <c r="W39" s="25">
+        <v>0</v>
+      </c>
+      <c r="X39" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AD39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="27">
+        <v>0</v>
+      </c>
+      <c r="C40" s="28">
+        <v>0</v>
+      </c>
+      <c r="D40" s="28">
+        <v>0</v>
+      </c>
+      <c r="E40" s="28">
+        <v>0</v>
+      </c>
+      <c r="F40" s="28">
+        <v>0</v>
+      </c>
+      <c r="G40" s="28">
+        <v>0</v>
+      </c>
+      <c r="H40" s="28">
+        <v>0</v>
+      </c>
+      <c r="I40" s="28">
+        <v>0</v>
+      </c>
+      <c r="J40" s="28">
+        <v>0</v>
+      </c>
+      <c r="K40" s="28">
+        <v>0</v>
+      </c>
+      <c r="L40" s="28">
+        <v>0</v>
+      </c>
+      <c r="M40" s="28">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="28">
+        <v>0</v>
+      </c>
+      <c r="O40" s="28">
+        <v>0</v>
+      </c>
+      <c r="P40" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="28">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="R40" s="28">
+        <v>-0.126</v>
+      </c>
+      <c r="S40" s="28">
+        <v>0</v>
+      </c>
+      <c r="T40" s="28">
+        <v>0</v>
+      </c>
+      <c r="U40" s="28">
+        <v>0</v>
+      </c>
+      <c r="V40" s="28">
+        <v>0</v>
+      </c>
+      <c r="W40" s="28">
+        <v>0</v>
+      </c>
+      <c r="X40" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f>COUNTIF(B2:B40,"&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:AI41" si="0">COUNTIF(C2:C40,"&lt;&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066A68C6-B76F-4C71-8283-25A91F9A1ED1}">
   <sheetPr filterMode="1"/>
   <dimension ref="B1:B100"/>
@@ -6371,12 +10897,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1C6E59-DBDC-43A9-80DC-30DE878D23D8}">
   <dimension ref="D1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
